--- a/content/CustomerClusterReport.xlsx
+++ b/content/CustomerClusterReport.xlsx
@@ -2,41 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarshItkar\Projects\Jupyter workspace\RedundancyReportGenerator\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7EFA2-5917-480F-93D4-3413E5D50330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A84465-690F-4942-96F0-50839E98470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47F20C5A-7039-424C-9C07-79C79F6A6579}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+  <si>
+    <t>classification</t>
+  </si>
   <si>
     <t>Party ID</t>
   </si>
@@ -47,19 +34,160 @@
     <t>Taxpayer ID</t>
   </si>
   <si>
-    <t>715503</t>
+    <t>Precision Glass</t>
+  </si>
+  <si>
+    <t>Precision Glass Inc</t>
+  </si>
+  <si>
+    <t>Great Northern Windows Inc</t>
+  </si>
+  <si>
+    <t>Architectural Glazing</t>
+  </si>
+  <si>
+    <t>Architectural Glazing systems</t>
+  </si>
+  <si>
+    <t>Door &amp; Window Store Inc</t>
+  </si>
+  <si>
+    <t>Pacific Window &amp; Door Store</t>
+  </si>
+  <si>
+    <t>Window &amp; Door Store Inc</t>
+  </si>
+  <si>
+    <t>Phoenix Door Inc</t>
+  </si>
+  <si>
+    <t>86-0582065</t>
+  </si>
+  <si>
+    <t>Phoenix Window &amp; Door LLC</t>
+  </si>
+  <si>
+    <t>Imperial Window &amp; Door</t>
+  </si>
+  <si>
+    <t>Imperial Windows And Doors</t>
+  </si>
+  <si>
+    <t>Mountain View Window &amp; Door</t>
+  </si>
+  <si>
+    <t>Mountain Window &amp; Door Inc</t>
+  </si>
+  <si>
+    <t>Bennett's Glass - Logan</t>
+  </si>
+  <si>
+    <t>Bennett Glass Company</t>
+  </si>
+  <si>
+    <t>94-2666027</t>
+  </si>
+  <si>
+    <t>Signature Glass</t>
+  </si>
+  <si>
+    <t>Signature Glass &amp; Window Inc</t>
+  </si>
+  <si>
+    <t>Pacific Rim Sash &amp; Door LLC</t>
+  </si>
+  <si>
+    <t>Pacific Door &amp; Sash</t>
+  </si>
+  <si>
+    <t>Window &amp; Door Center</t>
+  </si>
+  <si>
+    <t>Door &amp; Window Center</t>
+  </si>
+  <si>
+    <t>Bella View Windows &amp; Doors Inc</t>
+  </si>
+  <si>
+    <t>Bella Vista Windows &amp; Doors</t>
+  </si>
+  <si>
+    <t>A-1 Glass LLC</t>
   </si>
   <si>
     <t>A-1 Glass Co Inc</t>
   </si>
   <si>
-    <t>265440</t>
-  </si>
-  <si>
-    <t>A-1 Glass LLC</t>
-  </si>
-  <si>
-    <t>classification</t>
+    <t>Sierra Glass &amp; Screen</t>
+  </si>
+  <si>
+    <t>Eastern Sierra Glass &amp; Screen LLC</t>
+  </si>
+  <si>
+    <t>Arrow Glass</t>
+  </si>
+  <si>
+    <t>Arrow Glass Co</t>
+  </si>
+  <si>
+    <t>The Window &amp; Door Shop</t>
+  </si>
+  <si>
+    <t>The Window &amp; Door Shoppe</t>
+  </si>
+  <si>
+    <t>Roadrunner Glass Co</t>
+  </si>
+  <si>
+    <t>D &amp; C Roadrunner Glass</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Vallejo Glass</t>
+  </si>
+  <si>
+    <t>California Glass of Vallejo Inc</t>
+  </si>
+  <si>
+    <t>Hillsview Building Supply LLC</t>
+  </si>
+  <si>
+    <t>Hillsview Building Inc</t>
+  </si>
+  <si>
+    <t>Elite Windows &amp; Doors LLC</t>
+  </si>
+  <si>
+    <t>Elite Door &amp; Window Inc</t>
+  </si>
+  <si>
+    <t>Pioneer Glass</t>
+  </si>
+  <si>
+    <t>Pioneer Custom Glass Inc</t>
+  </si>
+  <si>
+    <t>Advanced Window Systems</t>
+  </si>
+  <si>
+    <t>Advanced Window Systems LLC</t>
+  </si>
+  <si>
+    <t>M C Doors and Windows</t>
+  </si>
+  <si>
+    <t>C &amp; M Windows &amp; Doors</t>
+  </si>
+  <si>
+    <t>California Pacific Homes</t>
+  </si>
+  <si>
+    <t>Pacific Homes</t>
   </si>
 </sst>
 </file>
@@ -70,15 +198,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,15 +230,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,44 +259,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,32 +323,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,24 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,220 +368,778 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB473BD-9D1B-48D9-A72B-34CA2E6995F7}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A50" sqref="A50:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2">
+        <v>11896</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3">
+        <v>715525</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11956</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1459471</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>103671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>265357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>103743</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>881301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1117617</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>103859</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1244636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>103918</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>265573</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>144032</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1348185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>144075</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>177722</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>144082</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>265540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>12024</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>12061</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>265250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>265430</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>265366</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>265466</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>265440</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>715503</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>265499</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1145009</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>715279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>715457</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>715324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>881312</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>715349</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>715538</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>715407</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>870223</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>715554</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>1028565</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>12080</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>33030</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>998314</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>1363429</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>12091</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>103914</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>57462</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>715399</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>715477</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>57563</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>103642</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>103644</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>881249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>